--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6352847-F6C7-C147-8B26-CC845AAFB928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453DC5-3C6E-FC40-95B5-0E75930E25C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Spring 2020</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Letter</t>
+  </si>
+  <si>
+    <t>MOOSE Training</t>
+  </si>
+  <si>
+    <t>Presented project</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>current</t>
   </si>
 </sst>
 </file>
@@ -421,20 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:P9"/>
+  <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -463,22 +480,31 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
         <v>13</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>0.2</v>
       </c>
@@ -489,17 +515,20 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
-        <v>0.25</v>
-      </c>
-      <c r="N6">
-        <f>SUM(E6:M6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6">
+        <f>SUM(E6:O6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -510,12 +539,12 @@
         <f>D7*$E$6</f>
         <v>12.200000000000001</v>
       </c>
-      <c r="O7">
-        <f>SUM(E7,G7,I7,K7,M7)</f>
+      <c r="R7">
+        <f>SUM(Q7,E7,G7,I7,K7,O7)</f>
         <v>12.200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -523,15 +552,15 @@
         <v>97</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E9" si="0">D8*$E$6</f>
+        <f t="shared" ref="E8:E11" si="0">D8*$E$6</f>
         <v>19.400000000000002</v>
       </c>
-      <c r="O8">
-        <f>SUM(E8,G8,I8,K8,M8)</f>
+      <c r="R8">
+        <f t="shared" ref="R8:R9" si="1">SUM(Q8,E8,G8,I8,K8,O8)</f>
         <v>19.400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -542,9 +571,46 @@
         <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
-      <c r="O9">
-        <f>SUM(E9,G9,I9,K9,M9)</f>
+      <c r="R9">
+        <f t="shared" si="1"/>
         <v>17.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <f>SUM(E11:O11)</f>
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <f>R7/$P$11</f>
+        <v>0.6100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <f t="shared" ref="R12:R13" si="2">R8/$P$11</f>
+        <v>0.97000000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453DC5-3C6E-FC40-95B5-0E75930E25C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83209DC5-2D28-1A4B-A2FA-6B286950F46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83209DC5-2D28-1A4B-A2FA-6B286950F46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A31EB85-379D-7346-AF24-4C6577B4CC81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,9 +539,16 @@
         <f>D7*$E$6</f>
         <v>12.200000000000001</v>
       </c>
+      <c r="L7">
+        <v>83</v>
+      </c>
+      <c r="M7">
+        <f>L7*$M$6</f>
+        <v>8.3000000000000007</v>
+      </c>
       <c r="R7">
-        <f>SUM(Q7,E7,G7,I7,K7,O7)</f>
-        <v>12.200000000000001</v>
+        <f>SUM(Q7,E7,G7,I7,K7,O7,M7)</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
@@ -555,9 +562,16 @@
         <f t="shared" ref="E8:E11" si="0">D8*$E$6</f>
         <v>19.400000000000002</v>
       </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M9" si="1">L8*$M$6</f>
+        <v>8.7000000000000011</v>
+      </c>
       <c r="R8">
-        <f t="shared" ref="R8:R9" si="1">SUM(Q8,E8,G8,I8,K8,O8)</f>
-        <v>19.400000000000002</v>
+        <f t="shared" ref="R8:R9" si="2">SUM(Q8,E8,G8,I8,K8,O8,M8)</f>
+        <v>28.1</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
@@ -571,9 +585,16 @@
         <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
+      <c r="L9">
+        <v>90</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="R9">
-        <f t="shared" si="1"/>
-        <v>17.8</v>
+        <f t="shared" si="2"/>
+        <v>26.8</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
@@ -592,25 +613,32 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f>L11*$M$6</f>
+        <v>10</v>
+      </c>
       <c r="P11">
-        <f>SUM(E11:O11)</f>
-        <v>20</v>
+        <f>SUM(E11,G11,I11,K11,M11,O11)</f>
+        <v>30</v>
       </c>
       <c r="R11">
         <f>R7/$P$11</f>
-        <v>0.6100000000000001</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R12">
-        <f t="shared" ref="R12:R13" si="2">R8/$P$11</f>
-        <v>0.97000000000000008</v>
+        <f t="shared" ref="R12:R13" si="3">R8/$P$11</f>
+        <v>0.93666666666666676</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R13">
-        <f t="shared" si="2"/>
-        <v>0.89</v>
+        <f t="shared" si="3"/>
+        <v>0.89333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A31EB85-379D-7346-AF24-4C6577B4CC81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9106E51-69D6-DA4C-AD8F-111F59AA92E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Spring 2020</t>
   </si>
@@ -82,6 +82,39 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>Exam1</t>
+  </si>
+  <si>
+    <t>Exam2</t>
+  </si>
+  <si>
+    <t>Exam3</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>Vedant</t>
+  </si>
+  <si>
+    <t>Yuqing</t>
+  </si>
+  <si>
+    <t>Khadija</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
@@ -433,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:S13"/>
+  <dimension ref="B2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,6 +572,13 @@
         <f>D7*$E$6</f>
         <v>12.200000000000001</v>
       </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <f>F7*$E$6</f>
+        <v>16</v>
+      </c>
       <c r="L7">
         <v>83</v>
       </c>
@@ -548,7 +588,7 @@
       </c>
       <c r="R7">
         <f>SUM(Q7,E7,G7,I7,K7,O7,M7)</f>
-        <v>20.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
@@ -559,8 +599,15 @@
         <v>97</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E11" si="0">D8*$E$6</f>
+        <f t="shared" ref="E8:G11" si="0">D8*$E$6</f>
         <v>19.400000000000002</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <f>F8*$E$6</f>
+        <v>19.8</v>
       </c>
       <c r="L8">
         <v>87</v>
@@ -571,7 +618,7 @@
       </c>
       <c r="R8">
         <f t="shared" ref="R8:R9" si="2">SUM(Q8,E8,G8,I8,K8,O8,M8)</f>
-        <v>28.1</v>
+        <v>47.900000000000006</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
@@ -585,6 +632,13 @@
         <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
+      <c r="F9">
+        <v>103</v>
+      </c>
+      <c r="G9">
+        <f>F9*$E$6</f>
+        <v>20.6</v>
+      </c>
       <c r="L9">
         <v>90</v>
       </c>
@@ -594,7 +648,7 @@
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>47.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
@@ -613,6 +667,13 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="L11">
         <v>100</v>
       </c>
@@ -622,23 +683,351 @@
       </c>
       <c r="P11">
         <f>SUM(E11,G11,I11,K11,M11,O11)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R11">
         <f>R7/$P$11</f>
-        <v>0.68333333333333335</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R12">
         <f t="shared" ref="R12:R13" si="3">R8/$P$11</f>
-        <v>0.93666666666666676</v>
+        <v>0.95800000000000007</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>0.89333333333333331</v>
+        <v>0.94800000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>89</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>C16*C17</f>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:F18" si="4">D16*D17</f>
+        <v>19.400000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>17.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>103</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>C19*C20</f>
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="5">D19*D20</f>
+        <v>19.8</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="6">E19*E20</f>
+        <v>20.6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="7">F19*F20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>C22*C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="8">D22*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="9">E22*E23</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="10">F22*F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>C25*C26</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="11">D25*D26</f>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="12">E25*E26</f>
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="13">F25*F26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f>C28*C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="14">D28*D29</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="15">E28*E29</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="16">F28*F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>C31*C32</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="17">D31*D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="18">E31*E32</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="19">F31*F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C33,C30,C27,C24,C21,C18)</f>
+        <v>36.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:F35" si="20">SUM(D33,D30,D27,D24,D21,D18)</f>
+        <v>47.900000000000006</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="20"/>
+        <v>47.400000000000006</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <f>C35/$F$35</f>
+        <v>0.73</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:E37" si="21">D35/$F$35</f>
+        <v>0.95800000000000007</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="21"/>
+        <v>0.94800000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9106E51-69D6-DA4C-AD8F-111F59AA92E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D57A32-3892-744A-8C18-5E47DEE7C3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="22900" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Spring 2020</t>
   </si>
@@ -114,7 +114,10 @@
     <t>sum</t>
   </si>
   <si>
-    <t>grade</t>
+    <t>Final Survey</t>
+  </si>
+  <si>
+    <t>Current Grade</t>
   </si>
 </sst>
 </file>
@@ -466,9 +469,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:S37"/>
+  <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -994,38 +997,43 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C35">
-        <f>SUM(C33,C30,C27,C24,C21,C18)</f>
+      <c r="C37">
+        <f>SUM(C33,C30,C27,C24,C21,C18,C35)</f>
         <v>36.5</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35:F35" si="20">SUM(D33,D30,D27,D24,D21,D18)</f>
+      <c r="D37">
+        <f t="shared" ref="D37:E37" si="20">SUM(D33,D30,D27,D24,D21,D18,D35)</f>
         <v>47.900000000000006</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <f t="shared" si="20"/>
         <v>47.400000000000006</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="20"/>
+      <c r="F37">
+        <f>SUM(F33,F30,F27,F24,F21,F18,F35)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37">
-        <f>C35/$F$35</f>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f>C37/$F$37</f>
         <v>0.73</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:E37" si="21">D35/$F$35</f>
+      <c r="D39">
+        <f t="shared" ref="D39:E39" si="21">D37/$F$37</f>
         <v>0.95800000000000007</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <f t="shared" si="21"/>
         <v>0.94800000000000006</v>
       </c>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D57A32-3892-744A-8C18-5E47DEE7C3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A55940-E9C7-9449-95CA-E7F386E09C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22900" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,6 +919,18 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
+      <c r="C28">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>91</v>
+      </c>
+      <c r="E28">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
@@ -940,19 +952,19 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>C28*C29</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30" si="14">D28*D29</f>
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30" si="15">E28*E29</f>
-        <v>0</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="F30">
         <f t="shared" ref="F30" si="16">F28*F29</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -1006,19 +1018,19 @@
       </c>
       <c r="C37">
         <f>SUM(C33,C30,C27,C24,C21,C18,C35)</f>
-        <v>36.5</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:E37" si="20">SUM(D33,D30,D27,D24,D21,D18,D35)</f>
-        <v>47.900000000000006</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <f t="shared" si="20"/>
-        <v>47.400000000000006</v>
+        <v>57</v>
       </c>
       <c r="F37">
         <f>SUM(F33,F30,F27,F24,F21,F18,F35)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -1027,15 +1039,15 @@
       </c>
       <c r="C39">
         <f>C37/$F$37</f>
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="D39">
         <f t="shared" ref="D39:E39" si="21">D37/$F$37</f>
-        <v>0.95800000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="E39">
         <f t="shared" si="21"/>
-        <v>0.94800000000000006</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A55940-E9C7-9449-95CA-E7F386E09C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6713C-069D-154F-9756-5DF2FBCF7638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22900" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -153,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +473,7 @@
   <dimension ref="B2:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,6 +828,18 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -848,19 +861,19 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>C22*C23</f>
-        <v>0</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24" si="8">D22*D23</f>
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24" si="9">E22*E23</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F24">
         <f t="shared" ref="F24" si="10">F22*F23</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -1018,34 +1031,34 @@
       </c>
       <c r="C37">
         <f>SUM(C33,C30,C27,C24,C21,C18,C35)</f>
-        <v>45</v>
+        <v>58.2</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:E37" si="20">SUM(D33,D30,D27,D24,D21,D18,D35)</f>
-        <v>57</v>
+        <v>75.800000000000011</v>
       </c>
       <c r="E37">
         <f t="shared" si="20"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <f>SUM(F33,F30,F27,F24,F21,F18,F35)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <f>C37/$F$37</f>
-        <v>0.75</v>
-      </c>
-      <c r="D39">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="D39" s="1">
         <f t="shared" ref="D39:E39" si="21">D37/$F$37</f>
-        <v>0.95</v>
-      </c>
-      <c r="E39">
+        <v>0.94750000000000012</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="21"/>
         <v>0.95</v>
       </c>

--- a/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2020/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6713C-069D-154F-9756-5DF2FBCF7638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817F3E5-7C08-4049-B0B2-67838AD0CEE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22900" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Spring 2020</t>
   </si>
@@ -118,19 +118,109 @@
   </si>
   <si>
     <t>Current Grade</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>98-100</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>93-97</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>90-92</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>87-89</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>83-87</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>80-82</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>77-79</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>73-76</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>70-72</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>67-69</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>63-66</t>
+  </si>
+  <si>
+    <t>D-</t>
+  </si>
+  <si>
+    <t>60-62</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Letter Grade</t>
+  </si>
+  <si>
+    <t>Precent Grade</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,9 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,9 +561,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:S39"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -719,6 +810,12 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -736,8 +833,14 @@
       <c r="F16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -753,8 +856,14 @@
       <c r="F17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>C16*C17</f>
         <v>12.200000000000001</v>
@@ -771,8 +880,14 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -788,8 +903,14 @@
       <c r="F19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -805,8 +926,14 @@
       <c r="F20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>C19*C20</f>
         <v>16</v>
@@ -823,8 +950,14 @@
         <f t="shared" ref="F21" si="7">F19*F20</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -840,8 +973,14 @@
       <c r="F22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -857,8 +996,14 @@
       <c r="F23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>C22*C23</f>
         <v>13.200000000000001</v>
@@ -875,8 +1020,14 @@
         <f t="shared" ref="F24" si="10">F22*F23</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -892,8 +1043,14 @@
       <c r="F25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -909,8 +1066,14 @@
       <c r="F26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C27">
         <f>C25*C26</f>
         <v>8.3000000000000007</v>
@@ -927,8 +1090,14 @@
         <f t="shared" ref="F27" si="13">F25*F26</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -944,8 +1113,14 @@
       <c r="F28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -962,7 +1137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>C28*C29</f>
         <v>8.5</v>
@@ -980,12 +1155,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>95</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1005,25 +1192,34 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C33">
         <f>C31*C32</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33" si="17">D31*D32</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33" si="18">E31*E32</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33" si="19">F31*F32</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>29</v>
       </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
@@ -1031,19 +1227,19 @@
       </c>
       <c r="C37">
         <f>SUM(C33,C30,C27,C24,C21,C18,C35)</f>
-        <v>58.2</v>
+        <v>76.2</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:E37" si="20">SUM(D33,D30,D27,D24,D21,D18,D35)</f>
-        <v>75.800000000000011</v>
+        <v>97.800000000000011</v>
       </c>
       <c r="E37">
         <f t="shared" si="20"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F37">
         <f>SUM(F33,F30,F27,F24,F21,F18,F35)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -1052,15 +1248,29 @@
       </c>
       <c r="C39" s="1">
         <f>C37/$F$37</f>
-        <v>0.72750000000000004</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ref="D39:E39" si="21">D37/$F$37</f>
-        <v>0.94750000000000012</v>
+        <v>0.97800000000000009</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="21"/>
-        <v>0.95</v>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
